--- a/dataset_cnn_summarized - Copy.xlsx
+++ b/dataset_cnn_summarized - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hello Mahasiswa\Kuliah\Semester 6\Aplkasi Pembelajaran Mesin\tes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61838BD1-1CCD-419A-9F32-78C49352AAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FC973C-5A1D-4111-8BA6-0BC09347E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="15855" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -836,7 +836,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -892,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,11 +1197,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/dataset_cnn_summarized - Copy.xlsx
+++ b/dataset_cnn_summarized - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hello Mahasiswa\Kuliah\Semester 6\Aplkasi Pembelajaran Mesin\tes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FC973C-5A1D-4111-8BA6-0BC09347E29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EC608-03DA-456C-B9B9-7207B2415BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="0" windowWidth="15855" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
